--- a/TestData/ReportData/Report.xlsx
+++ b/TestData/ReportData/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21EB90-CDD9-4660-8440-A94E0A51DA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A96442-C7A2-4DEE-942F-B61885AC3148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checkReport" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>ItmeName</t>
   </si>
@@ -97,76 +97,46 @@
     <t>Silver Zipper Supplier</t>
   </si>
   <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>(Automation) Item 65</t>
-  </si>
-  <si>
-    <t>AT-IT-65</t>
-  </si>
-  <si>
-    <t>(Automation) Item 66</t>
-  </si>
-  <si>
-    <t>AT-IT-66</t>
-  </si>
-  <si>
-    <t>(Automation) Item 67</t>
-  </si>
-  <si>
-    <t>AT-IT-67</t>
-  </si>
-  <si>
-    <t>(Automation) Item 68</t>
-  </si>
-  <si>
-    <t>AT-IT-68</t>
-  </si>
-  <si>
-    <t>(Automation) Item 69</t>
-  </si>
-  <si>
-    <t>AT-IT-69</t>
-  </si>
-  <si>
-    <t>(Automation) Item 64</t>
-  </si>
-  <si>
-    <t>AT-IT-64</t>
-  </si>
-  <si>
-    <t>(Automation) Item 59</t>
-  </si>
-  <si>
-    <t>AT-IT-59</t>
-  </si>
-  <si>
-    <t>(Automation) Item 60</t>
-  </si>
-  <si>
-    <t>AT-IT-60</t>
-  </si>
-  <si>
-    <t>(Automation) Item 61</t>
-  </si>
-  <si>
-    <t>AT-IT-61</t>
-  </si>
-  <si>
-    <t>(Automation) Item 62</t>
-  </si>
-  <si>
-    <t>AT-IT-62</t>
-  </si>
-  <si>
-    <t>(Automation) Item 63</t>
-  </si>
-  <si>
-    <t>AT-IT-63</t>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>Leather00-13</t>
+  </si>
+  <si>
+    <t>LT-013</t>
+  </si>
+  <si>
+    <t>(Automation) Item 70</t>
+  </si>
+  <si>
+    <t>AT-IT-70</t>
+  </si>
+  <si>
+    <t>(Automation) Item 71</t>
+  </si>
+  <si>
+    <t>AT-IT-71</t>
+  </si>
+  <si>
+    <t>(Automation) Item 72</t>
+  </si>
+  <si>
+    <t>AT-IT-72</t>
+  </si>
+  <si>
+    <t>(Automation) Item 73</t>
+  </si>
+  <si>
+    <t>AT-IT-73</t>
+  </si>
+  <si>
+    <t>(Automation) Item 74</t>
+  </si>
+  <si>
+    <t>AT-IT-74</t>
+  </si>
+  <si>
+    <t>Vendor</t>
   </si>
 </sst>
 </file>
@@ -493,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,10 +506,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -548,7 +518,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -571,10 +541,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -583,7 +553,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -606,10 +576,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -618,7 +588,7 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -641,10 +611,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -653,7 +623,7 @@
         <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -676,10 +646,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -688,7 +658,7 @@
         <v>2000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -711,19 +681,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -754,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F074D3-D8AC-417C-946A-EE37F68CF1B9}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,10 +767,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -809,7 +779,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -832,10 +802,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -844,7 +814,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -867,10 +837,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -879,7 +849,7 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -902,10 +872,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -914,7 +884,7 @@
         <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -937,10 +907,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -949,7 +919,7 @@
         <v>2000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -972,19 +942,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>10</v>

--- a/TestData/ReportData/Report.xlsx
+++ b/TestData/ReportData/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A96442-C7A2-4DEE-942F-B61885AC3148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1890FE-B4D1-409D-829C-8FF814C9F443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t>ItmeName</t>
   </si>
@@ -97,46 +97,82 @@
     <t>Silver Zipper Supplier</t>
   </si>
   <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>Leather00-13</t>
-  </si>
-  <si>
-    <t>LT-013</t>
-  </si>
-  <si>
-    <t>(Automation) Item 70</t>
-  </si>
-  <si>
-    <t>AT-IT-70</t>
-  </si>
-  <si>
-    <t>(Automation) Item 71</t>
-  </si>
-  <si>
-    <t>AT-IT-71</t>
-  </si>
-  <si>
-    <t>(Automation) Item 72</t>
-  </si>
-  <si>
-    <t>AT-IT-72</t>
-  </si>
-  <si>
-    <t>(Automation) Item 73</t>
-  </si>
-  <si>
-    <t>AT-IT-73</t>
-  </si>
-  <si>
-    <t>(Automation) Item 74</t>
-  </si>
-  <si>
-    <t>AT-IT-74</t>
-  </si>
-  <si>
     <t>Vendor</t>
+  </si>
+  <si>
+    <t>Leather00-16</t>
+  </si>
+  <si>
+    <t>LT-016</t>
+  </si>
+  <si>
+    <t>(Automation) Item 80</t>
+  </si>
+  <si>
+    <t>AT-IT-80</t>
+  </si>
+  <si>
+    <t>(Automation) Item 81</t>
+  </si>
+  <si>
+    <t>AT-IT-81</t>
+  </si>
+  <si>
+    <t>(Automation) Item 82</t>
+  </si>
+  <si>
+    <t>AT-IT-82</t>
+  </si>
+  <si>
+    <t>(Automation) Item 83</t>
+  </si>
+  <si>
+    <t>AT-IT-83</t>
+  </si>
+  <si>
+    <t>(Automation) Item 84</t>
+  </si>
+  <si>
+    <t>AT-IT-84</t>
+  </si>
+  <si>
+    <t>AT-IT-79</t>
+  </si>
+  <si>
+    <t>(Automation) Item 79</t>
+  </si>
+  <si>
+    <t>(Automation) Item 75</t>
+  </si>
+  <si>
+    <t>AT-IT-75</t>
+  </si>
+  <si>
+    <t>(Automation) Item 76</t>
+  </si>
+  <si>
+    <t>AT-IT-76</t>
+  </si>
+  <si>
+    <t>(Automation) Item 77</t>
+  </si>
+  <si>
+    <t>AT-IT-77</t>
+  </si>
+  <si>
+    <t>(Automation) Item 78</t>
+  </si>
+  <si>
+    <t>AT-IT-78</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>Leather00-18</t>
+  </si>
+  <si>
+    <t>LT-018</t>
   </si>
 </sst>
 </file>
@@ -464,7 +500,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,10 +542,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -518,7 +554,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -541,10 +577,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -553,7 +589,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -576,10 +612,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -588,7 +624,7 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -611,10 +647,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -623,7 +659,7 @@
         <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -646,10 +682,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -658,7 +694,7 @@
         <v>2000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -681,19 +717,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -717,6 +753,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -725,7 +762,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +816,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -814,7 +851,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -849,7 +886,7 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -884,7 +921,7 @@
         <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -919,7 +956,7 @@
         <v>2000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -948,13 +985,13 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>10</v>

--- a/TestData/ReportData/Report.xlsx
+++ b/TestData/ReportData/Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1890FE-B4D1-409D-829C-8FF814C9F443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893631F8-8954-4232-B320-56BA53B5BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>ItmeName</t>
   </si>
@@ -100,79 +100,43 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>Leather00-16</t>
-  </si>
-  <si>
-    <t>LT-016</t>
-  </si>
-  <si>
-    <t>(Automation) Item 80</t>
-  </si>
-  <si>
-    <t>AT-IT-80</t>
-  </si>
-  <si>
-    <t>(Automation) Item 81</t>
-  </si>
-  <si>
-    <t>AT-IT-81</t>
-  </si>
-  <si>
-    <t>(Automation) Item 82</t>
-  </si>
-  <si>
-    <t>AT-IT-82</t>
-  </si>
-  <si>
-    <t>(Automation) Item 83</t>
-  </si>
-  <si>
-    <t>AT-IT-83</t>
-  </si>
-  <si>
-    <t>(Automation) Item 84</t>
-  </si>
-  <si>
-    <t>AT-IT-84</t>
-  </si>
-  <si>
-    <t>AT-IT-79</t>
-  </si>
-  <si>
-    <t>(Automation) Item 79</t>
-  </si>
-  <si>
-    <t>(Automation) Item 75</t>
-  </si>
-  <si>
-    <t>AT-IT-75</t>
-  </si>
-  <si>
-    <t>(Automation) Item 76</t>
-  </si>
-  <si>
-    <t>AT-IT-76</t>
-  </si>
-  <si>
-    <t>(Automation) Item 77</t>
-  </si>
-  <si>
-    <t>AT-IT-77</t>
-  </si>
-  <si>
-    <t>(Automation) Item 78</t>
-  </si>
-  <si>
-    <t>AT-IT-78</t>
-  </si>
-  <si>
-    <t>2023-07-21</t>
-  </si>
-  <si>
-    <t>Leather00-18</t>
-  </si>
-  <si>
-    <t>LT-018</t>
+    <t>Leather00-22</t>
+  </si>
+  <si>
+    <t>LT-022</t>
+  </si>
+  <si>
+    <t>(Automation) Item 110</t>
+  </si>
+  <si>
+    <t>AT-IT-110</t>
+  </si>
+  <si>
+    <t>(Automation) Item 111</t>
+  </si>
+  <si>
+    <t>AT-IT-111</t>
+  </si>
+  <si>
+    <t>(Automation) Item 112</t>
+  </si>
+  <si>
+    <t>AT-IT-112</t>
+  </si>
+  <si>
+    <t>(Automation) Item 113</t>
+  </si>
+  <si>
+    <t>AT-IT-113</t>
+  </si>
+  <si>
+    <t>(Automation) Item 114</t>
+  </si>
+  <si>
+    <t>AT-IT-114</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
   </si>
 </sst>
 </file>
@@ -500,7 +464,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,10 +506,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -554,7 +518,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -577,10 +541,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -589,7 +553,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -612,10 +576,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -624,7 +588,7 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -647,10 +611,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -659,7 +623,7 @@
         <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -682,10 +646,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -694,7 +658,7 @@
         <v>2000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -717,10 +681,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -729,7 +693,7 @@
         <v>2000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -762,7 +726,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +780,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -851,7 +815,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -886,7 +850,7 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -921,7 +885,7 @@
         <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -956,7 +920,7 @@
         <v>2000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -991,7 +955,7 @@
         <v>2000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>10</v>

--- a/TestData/ReportData/Report.xlsx
+++ b/TestData/ReportData/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893631F8-8954-4232-B320-56BA53B5BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC741DC-A8C5-45B8-89F2-7245D38130DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checkReport" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <t>AT-IT-114</t>
   </si>
   <si>
-    <t>2023-08-18</t>
+    <t>2023-08-25</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F074D3-D8AC-417C-946A-EE37F68CF1B9}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" activeCellId="1" sqref="E7 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
